--- a/data/tehilim-data/22.xlsx
+++ b/data/tehilim-data/22.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="450">
   <si>
     <t>original</t>
   </si>
@@ -28,10 +28,16 @@
     <t>Руководителю</t>
   </si>
   <si>
-    <t>עַל-אַיֶּלֶת הַשַּׁחַר</t>
-  </si>
-  <si>
-    <t>На «Айлет-ха-Шахар»</t>
+    <t>עַל</t>
+  </si>
+  <si>
+    <t>На</t>
+  </si>
+  <si>
+    <t>אַיֶּלֶת-הַשַּׁחַר</t>
+  </si>
+  <si>
+    <t>«Айлет-ха-Шахар»</t>
   </si>
   <si>
     <t>מִזְמוֹר</t>
@@ -49,16 +55,22 @@
     <t>ב</t>
   </si>
   <si>
-    <t>אֵלִי אֵלִי</t>
-  </si>
-  <si>
-    <t>Боже мой, Боже мой</t>
-  </si>
-  <si>
-    <t>לָמָה עֲזַבְתָּנִי</t>
-  </si>
-  <si>
-    <t>почему Ты оставил меня?</t>
+    <t>אֵלִי</t>
+  </si>
+  <si>
+    <t>Боже мой</t>
+  </si>
+  <si>
+    <t>לָמָה</t>
+  </si>
+  <si>
+    <t>почему</t>
+  </si>
+  <si>
+    <t>עֲזַבְתָּנִי</t>
+  </si>
+  <si>
+    <t>Ты оставил меня?</t>
   </si>
   <si>
     <t>רָחוֹק</t>
@@ -91,13 +103,16 @@
     <t>אֱלֹהַי</t>
   </si>
   <si>
-    <t>Боже мой</t>
-  </si>
-  <si>
-    <t>אֶקְרָא יוֹמָם</t>
-  </si>
-  <si>
-    <t>Я взываю днем</t>
+    <t>אֶקְרָא</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>יוֹמָם</t>
+  </si>
+  <si>
+    <t>взываю днем</t>
   </si>
   <si>
     <t>וְלֹא-תַעֲנֶה</t>
@@ -112,10 +127,16 @@
     <t>и ночью</t>
   </si>
   <si>
-    <t>וְלֹא-דוּמִיָּה לִי</t>
-  </si>
-  <si>
-    <t>и нет для меня покоя</t>
+    <t>וְלֹא-דוּמִיָּה</t>
+  </si>
+  <si>
+    <t>и нет покоя</t>
+  </si>
+  <si>
+    <t>לִי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для меня </t>
   </si>
   <si>
     <t>ד</t>
@@ -235,10 +256,16 @@
     <t>поношение у людей</t>
   </si>
   <si>
-    <t>וּבְזוּי עָם</t>
-  </si>
-  <si>
-    <t>презренный у народа</t>
+    <t>וּבְזוּי</t>
+  </si>
+  <si>
+    <t>презренный</t>
+  </si>
+  <si>
+    <t>עָם</t>
+  </si>
+  <si>
+    <t>у народа</t>
   </si>
   <si>
     <t>ח</t>
@@ -250,10 +277,13 @@
     <t>Все, видящие меня</t>
   </si>
   <si>
-    <t>יַלְעִגוּ לִי</t>
-  </si>
-  <si>
-    <t>насмехаются надо мной</t>
+    <t>יַלְעִגוּ</t>
+  </si>
+  <si>
+    <t>насмехаются</t>
+  </si>
+  <si>
+    <t>надо мной</t>
   </si>
   <si>
     <t>יַפְטִירוּ</t>
@@ -307,10 +337,22 @@
     <t>пусть избавит его</t>
   </si>
   <si>
-    <t>כִּי חָפֵץ בּוֹ</t>
-  </si>
-  <si>
-    <t>если угоден ему»</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>если</t>
+  </si>
+  <si>
+    <t>חָפֵץ</t>
+  </si>
+  <si>
+    <t>угоден</t>
+  </si>
+  <si>
+    <t>בּוֹ</t>
+  </si>
+  <si>
+    <t>ему»</t>
   </si>
   <si>
     <t>י</t>
@@ -376,31 +418,46 @@
     <t>от утробы</t>
   </si>
   <si>
-    <t>אֵלִי</t>
-  </si>
-  <si>
     <t>Бог мой</t>
   </si>
   <si>
     <t>יב</t>
   </si>
   <si>
-    <t>אַל-תִּרְחַק מִמֶּנִּי</t>
-  </si>
-  <si>
-    <t>Не удаляйся от меня</t>
-  </si>
-  <si>
-    <t>כִּי-צָרָה קְרוֹבָה</t>
-  </si>
-  <si>
-    <t>ибо близка беда</t>
-  </si>
-  <si>
-    <t>כִּי-אֵין עוֹזֵר</t>
-  </si>
-  <si>
-    <t>и нет помощника</t>
+    <t>אַל-תִּרְחַק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не удаляйся </t>
+  </si>
+  <si>
+    <t>מִמֶּנִּי</t>
+  </si>
+  <si>
+    <t>от меня</t>
+  </si>
+  <si>
+    <t>כִּי-צָרָה</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>קְרוֹבָה</t>
+  </si>
+  <si>
+    <t>близка беда</t>
+  </si>
+  <si>
+    <t>כִּי-אֵין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ибо нет </t>
+  </si>
+  <si>
+    <t>עוֹזֵר</t>
+  </si>
+  <si>
+    <t>помощника</t>
   </si>
   <si>
     <t>יג</t>
@@ -448,10 +505,16 @@
     <t>יד</t>
   </si>
   <si>
-    <t>פָּצוּ עָלַי</t>
-  </si>
-  <si>
-    <t>Открыли на меня</t>
+    <t>פָּצוּ</t>
+  </si>
+  <si>
+    <t>Открыли</t>
+  </si>
+  <si>
+    <t>עָלַי</t>
+  </si>
+  <si>
+    <t>на меня</t>
   </si>
   <si>
     <t>פִיהֶם</t>
@@ -505,10 +568,16 @@
     <t>Все кости мои</t>
   </si>
   <si>
-    <t>הָיָה לִבִּי</t>
-  </si>
-  <si>
-    <t>Сердце мое</t>
+    <t>הָיָה</t>
+  </si>
+  <si>
+    <t>Сердце</t>
+  </si>
+  <si>
+    <t>לִבִּי</t>
+  </si>
+  <si>
+    <t>мое</t>
   </si>
   <si>
     <t>כַּדּוֹנָג</t>
@@ -523,10 +592,16 @@
     <t>тает</t>
   </si>
   <si>
-    <t>בְּתוֹךְ מֵעָי</t>
-  </si>
-  <si>
-    <t>внутри чрева моего</t>
+    <t>בְּתוֹךְ</t>
+  </si>
+  <si>
+    <t>внутри</t>
+  </si>
+  <si>
+    <t>מֵעָי</t>
+  </si>
+  <si>
+    <t>чрева моего</t>
   </si>
   <si>
     <t>טז</t>
@@ -589,10 +664,10 @@
     <t>יז</t>
   </si>
   <si>
-    <t>כִּי סְבָבוּנִי</t>
-  </si>
-  <si>
-    <t>Ибо окружили меня</t>
+    <t>Ибо</t>
+  </si>
+  <si>
+    <t>окружили меня</t>
   </si>
   <si>
     <t>כְּלָבִים</t>
@@ -601,10 +676,16 @@
     <t>псы</t>
   </si>
   <si>
-    <t>עֲדַת מְרֵעִים</t>
-  </si>
-  <si>
-    <t>сонм злодеев</t>
+    <t>עֲדַת</t>
+  </si>
+  <si>
+    <t>сонм</t>
+  </si>
+  <si>
+    <t>מְרֵעִים</t>
+  </si>
+  <si>
+    <t>злодеев</t>
   </si>
   <si>
     <t>הִקִּיפוּנִי</t>
@@ -664,9 +745,6 @@
     <t>בִי</t>
   </si>
   <si>
-    <t>на меня</t>
-  </si>
-  <si>
     <t>יט</t>
   </si>
   <si>
@@ -694,10 +772,16 @@
     <t>и об одеяние мое</t>
   </si>
   <si>
-    <t>יַפִּילוּ גוֹרָל</t>
-  </si>
-  <si>
-    <t>бросают жребий</t>
+    <t>יַפִּילוּ</t>
+  </si>
+  <si>
+    <t>бросают</t>
+  </si>
+  <si>
+    <t>גוֹרָל</t>
+  </si>
+  <si>
+    <t>жребий</t>
   </si>
   <si>
     <t>כ</t>
@@ -739,10 +823,16 @@
     <t>כא</t>
   </si>
   <si>
-    <t>הַצִּילָה מֵחֶרֶב</t>
-  </si>
-  <si>
-    <t>Спаси от меча</t>
+    <t>הַצִּילָה</t>
+  </si>
+  <si>
+    <t>Спаси</t>
+  </si>
+  <si>
+    <t>מֵחֶרֶב</t>
+  </si>
+  <si>
+    <t>от меча</t>
   </si>
   <si>
     <t>נַפְשִׁי</t>
@@ -772,16 +862,28 @@
     <t>Спаси меня</t>
   </si>
   <si>
-    <t>מִפִּי אֲרִי</t>
-  </si>
-  <si>
-    <t>от пасти льва</t>
-  </si>
-  <si>
-    <t>וּמִקַּרְנֵי רֵמִים</t>
-  </si>
-  <si>
-    <t>и от рогов единорога</t>
+    <t>מִפִּי</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>אֲרִי</t>
+  </si>
+  <si>
+    <t>пасти льва</t>
+  </si>
+  <si>
+    <t>וּמִקַּרְנֵי</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>רֵמִים</t>
+  </si>
+  <si>
+    <t>от рогов единорога</t>
   </si>
   <si>
     <t>עֲנִיתָנִי</t>
@@ -811,10 +913,13 @@
     <t>братьям моим</t>
   </si>
   <si>
-    <t>בְּתוֹךְ קָהָל</t>
-  </si>
-  <si>
-    <t>посреди собрания</t>
+    <t>посреди</t>
+  </si>
+  <si>
+    <t>קָהָל</t>
+  </si>
+  <si>
+    <t>собрания</t>
   </si>
   <si>
     <t>אֲהַלְלֶךָ</t>
@@ -878,12 +983,6 @@
   </si>
   <si>
     <t>כ"ה</t>
-  </si>
-  <si>
-    <t>כִּי</t>
-  </si>
-  <si>
-    <t>ибо</t>
   </si>
   <si>
     <t>לֹא</t>
@@ -1268,7 +1367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1277,10 +1376,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1299,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1314,10 +1409,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,10 +1698,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1632,10 +1730,10 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -1664,10 +1762,10 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1696,10 +1794,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2"/>
@@ -1728,11 +1826,11 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>2.0</v>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1760,11 +1858,11 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.0</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1792,10 +1890,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
@@ -1824,11 +1922,11 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1856,11 +1954,11 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1888,11 +1986,11 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1920,11 +2018,11 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1952,11 +2050,11 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3.0</v>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1984,11 +2082,11 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2016,11 +2114,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2048,11 +2146,11 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.0</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2080,11 +2178,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2112,11 +2210,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2144,11 +2242,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4.0</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2176,11 +2274,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2208,11 +2306,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2240,11 +2338,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2272,11 +2370,11 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2304,11 +2402,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.0</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2336,11 +2434,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5.0</v>
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2368,11 +2466,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
+      <c r="A27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2400,11 +2498,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2432,11 +2530,11 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2464,11 +2562,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
+      <c r="A30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2496,11 +2594,11 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
+      <c r="B31" s="7">
+        <v>5.0</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2528,11 +2626,11 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" s="4">
-        <v>6.0</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2560,10 +2658,10 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="2"/>
@@ -2592,10 +2690,10 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="2"/>
@@ -2624,11 +2722,11 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>61</v>
+      <c r="A35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2656,11 +2754,11 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>62</v>
+      <c r="A36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2688,11 +2786,11 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
+      <c r="A37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.0</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2720,10 +2818,10 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2"/>
@@ -2752,11 +2850,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="4">
-        <v>7.0</v>
+      <c r="B39" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2784,11 +2882,11 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2816,10 +2914,10 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="2"/>
@@ -2848,11 +2946,11 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>71</v>
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2880,11 +2978,11 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>73</v>
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2912,11 +3010,11 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
+      <c r="A44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7.0</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2944,11 +3042,11 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="4">
-        <v>8.0</v>
+      <c r="A45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2976,11 +3074,11 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>78</v>
+      <c r="A46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3008,11 +3106,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>80</v>
+      <c r="A47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3040,11 +3138,11 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>82</v>
+      <c r="A48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3072,11 +3170,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>84</v>
+      <c r="A49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3104,11 +3202,11 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>86</v>
+      <c r="A50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3136,11 +3234,11 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>88</v>
+      <c r="A51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8.0</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3168,11 +3266,11 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="4">
-        <v>9.0</v>
+      <c r="A52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3200,11 +3298,11 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>91</v>
+      <c r="A53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3232,11 +3330,11 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>93</v>
+      <c r="A54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3264,11 +3362,11 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
+      <c r="A55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3296,11 +3394,11 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>97</v>
+      <c r="A56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3328,11 +3426,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>99</v>
+      <c r="A57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3360,11 +3458,11 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="4">
-        <v>10.0</v>
+      <c r="A58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3392,11 +3490,11 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>102</v>
+      <c r="A59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="7">
+        <v>9.0</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3424,11 +3522,11 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>104</v>
+      <c r="A60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3456,11 +3554,11 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>106</v>
+      <c r="A61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3488,11 +3586,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>108</v>
+      <c r="A62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3520,11 +3618,11 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>110</v>
+      <c r="A63" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3552,11 +3650,11 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>112</v>
+      <c r="A64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3584,11 +3682,11 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="4">
-        <v>11.0</v>
+      <c r="A65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3616,11 +3714,11 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>62</v>
+      <c r="A66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3648,11 +3746,11 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>116</v>
+      <c r="A67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="7">
+        <v>10.0</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3680,11 +3778,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>118</v>
+      <c r="A68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3712,11 +3810,11 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>120</v>
+      <c r="A69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3744,11 +3842,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
+      <c r="A70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3776,10 +3874,10 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="2"/>
@@ -3808,11 +3906,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="4">
-        <v>12.0</v>
+      <c r="B72" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3840,11 +3938,11 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>125</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3872,11 +3970,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>127</v>
+      </c>
+      <c r="B74" s="7">
+        <v>11.0</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3904,11 +4002,11 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>129</v>
+      <c r="B75" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3936,11 +4034,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" s="4">
-        <v>13.0</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3968,10 +4066,10 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C77" s="2"/>
@@ -4000,10 +4098,10 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="2"/>
@@ -4032,11 +4130,11 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>136</v>
+      <c r="A79" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4064,11 +4162,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>138</v>
+      <c r="A80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4096,11 +4194,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>140</v>
+      <c r="A81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="7">
+        <v>12.0</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4128,11 +4226,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>142</v>
+      <c r="A82" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4160,11 +4258,11 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>138</v>
+      <c r="A83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4192,11 +4290,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="4">
-        <v>14.0</v>
+      <c r="A84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4224,11 +4322,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>146</v>
+      <c r="A85" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4256,11 +4354,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>148</v>
+      <c r="A86" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4288,11 +4386,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>150</v>
+      <c r="A87" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4320,11 +4418,11 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>152</v>
+      <c r="A88" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="7">
+        <v>13.0</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4352,11 +4450,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>154</v>
+      <c r="A89" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4384,11 +4482,11 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="4">
-        <v>15.0</v>
+      <c r="A90" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4416,11 +4514,11 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>157</v>
+      <c r="A91" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4448,11 +4546,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>159</v>
+      <c r="A92" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4480,11 +4578,11 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>161</v>
+      <c r="A93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4512,11 +4610,11 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>163</v>
+      <c r="A94" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4544,11 +4642,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>165</v>
+      <c r="A95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4576,11 +4674,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>167</v>
+      <c r="A96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="7">
+        <v>14.0</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4608,11 +4706,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>169</v>
+      <c r="A97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4640,11 +4738,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>171</v>
+      <c r="A98" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4672,11 +4770,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="4">
-        <v>16.0</v>
+      <c r="A99" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4704,11 +4802,11 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>174</v>
+      <c r="A100" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4736,11 +4834,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>176</v>
+      <c r="A101" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4768,11 +4866,11 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>178</v>
+      <c r="A102" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4800,11 +4898,11 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>180</v>
+      <c r="A103" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="7">
+        <v>15.0</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4832,11 +4930,11 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>182</v>
+      <c r="A104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4864,11 +4962,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>184</v>
+      <c r="A105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4896,11 +4994,11 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>186</v>
+      <c r="A106" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4928,11 +5026,11 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>188</v>
+      <c r="A107" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4960,11 +5058,11 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>190</v>
+      <c r="A108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4992,11 +5090,11 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B109" s="4">
-        <v>17.0</v>
+      <c r="A109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -5024,11 +5122,11 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>193</v>
+      <c r="A110" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5056,11 +5154,11 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>195</v>
+      <c r="A111" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5088,11 +5186,11 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>197</v>
+      <c r="A112" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5120,11 +5218,11 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>199</v>
+      <c r="A113" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5152,11 +5250,11 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>201</v>
+      <c r="A114" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="7">
+        <v>16.0</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5184,11 +5282,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>203</v>
+      <c r="A115" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5216,11 +5314,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>205</v>
+      <c r="A116" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5248,11 +5346,11 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B117" s="4">
-        <v>18.0</v>
+      <c r="A117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5280,11 +5378,11 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>208</v>
+      <c r="A118" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5312,11 +5410,11 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>209</v>
+      <c r="A119" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5344,11 +5442,11 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>211</v>
+      <c r="A120" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5376,11 +5474,11 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>213</v>
+      <c r="A121" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5408,11 +5506,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>215</v>
+      <c r="A122" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5440,11 +5538,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>217</v>
+      <c r="A123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5472,11 +5570,11 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="4">
-        <v>19.0</v>
+      <c r="A124" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="7">
+        <v>17.0</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5504,11 +5602,11 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>220</v>
+      <c r="A125" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5536,11 +5634,11 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>222</v>
+      <c r="A126" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5568,11 +5666,11 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>224</v>
+      <c r="A127" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5600,11 +5698,11 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>226</v>
+      <c r="A128" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5632,11 +5730,11 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>228</v>
+      <c r="A129" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5664,11 +5762,11 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B130" s="4">
-        <v>20.0</v>
+      <c r="A130" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5696,11 +5794,11 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>230</v>
+      <c r="A131" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5728,11 +5826,11 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>232</v>
+      <c r="A132" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5760,11 +5858,11 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>234</v>
+      <c r="A133" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5792,11 +5890,11 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>236</v>
+      <c r="A134" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="7">
+        <v>18.0</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5824,11 +5922,11 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>238</v>
+      <c r="A135" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5856,11 +5954,11 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>240</v>
+      <c r="A136" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5888,11 +5986,11 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B137" s="4">
-        <v>21.0</v>
+      <c r="A137" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5920,11 +6018,11 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>243</v>
+      <c r="A138" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5952,11 +6050,11 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>245</v>
+      <c r="A139" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5984,11 +6082,11 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>247</v>
+      <c r="A140" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -6016,11 +6114,11 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>249</v>
+      <c r="A141" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141" s="7">
+        <v>19.0</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -6048,11 +6146,11 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B142" s="4">
-        <v>22.0</v>
+      <c r="A142" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6080,11 +6178,11 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>252</v>
+      <c r="A143" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6112,11 +6210,11 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>254</v>
+      <c r="A144" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6144,11 +6242,11 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>256</v>
+      <c r="A145" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6176,11 +6274,11 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>258</v>
+      <c r="A146" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6209,10 +6307,10 @@
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B147" s="5">
-        <v>23.0</v>
+        <v>255</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6240,11 +6338,11 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>261</v>
+      <c r="A148" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" s="7">
+        <v>20.0</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6272,11 +6370,11 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>263</v>
+      <c r="A149" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6304,11 +6402,11 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>265</v>
+      <c r="A150" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6336,11 +6434,11 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>267</v>
+      <c r="A151" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6368,11 +6466,11 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>269</v>
+      <c r="A152" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6400,11 +6498,11 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B153" s="6">
-        <v>24.0</v>
+      <c r="A153" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6432,11 +6530,11 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>272</v>
+      <c r="A154" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6464,11 +6562,11 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>273</v>
+      <c r="A155" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" s="7">
+        <v>21.0</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6496,11 +6594,11 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>275</v>
+      <c r="A156" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6528,11 +6626,11 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>277</v>
+      <c r="A157" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6560,11 +6658,11 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>279</v>
+      <c r="A158" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6592,11 +6690,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>281</v>
+      <c r="A159" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6624,11 +6722,11 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>283</v>
+      <c r="A160" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6656,11 +6754,11 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>285</v>
+      <c r="A161" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" s="7">
+        <v>22.0</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6688,11 +6786,11 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>287</v>
+      <c r="A162" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6720,11 +6818,11 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>277</v>
+      <c r="A163" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6752,11 +6850,11 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>279</v>
+      <c r="A164" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6784,11 +6882,11 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>45</v>
+      <c r="A165" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6816,11 +6914,11 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B166" s="6">
-        <v>25.0</v>
+      <c r="A166" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6848,11 +6946,11 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>290</v>
+      <c r="A167" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6880,11 +6978,11 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>292</v>
+      <c r="A168" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B168" s="7">
+        <v>23.0</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6912,11 +7010,11 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>294</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6944,11 +7042,11 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>296</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6976,11 +7074,11 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>298</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -7008,10 +7106,10 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="A172" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C172" s="2"/>
@@ -7040,10 +7138,10 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C173" s="2"/>
@@ -7072,11 +7170,11 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>296</v>
+      <c r="A174" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -7104,11 +7202,11 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>304</v>
+      <c r="A175" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B175" s="7">
+        <v>24.0</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -7136,11 +7234,11 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="A176" s="5" t="s">
         <v>306</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -7168,11 +7266,11 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>307</v>
+      <c r="A177" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -7200,11 +7298,11 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>309</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7232,11 +7330,11 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B179" s="4" t="s">
+      <c r="A179" s="5" t="s">
         <v>311</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7264,11 +7362,11 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="A180" s="5" t="s">
         <v>313</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7296,11 +7394,11 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B181" s="6">
-        <v>26.0</v>
+      <c r="A181" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7328,11 +7426,11 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>316</v>
+      <c r="A182" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7360,11 +7458,11 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>318</v>
+      <c r="A183" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7392,11 +7490,11 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>320</v>
+      <c r="A184" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7424,11 +7522,11 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>322</v>
+      <c r="A185" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7456,11 +7554,11 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>324</v>
+      <c r="A186" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7488,11 +7586,11 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>326</v>
+      <c r="A187" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7520,11 +7618,11 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>328</v>
+      <c r="A188" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" s="7">
+        <v>25.0</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7552,11 +7650,11 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>330</v>
+      <c r="A189" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7584,11 +7682,11 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B190" s="6">
-        <v>27.0</v>
+      <c r="A190" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7616,11 +7714,11 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>333</v>
+      <c r="A191" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7648,11 +7746,11 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>335</v>
+      <c r="A192" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7680,11 +7778,11 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>337</v>
+      <c r="A193" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7712,11 +7810,11 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>339</v>
+      <c r="A194" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7744,11 +7842,11 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>273</v>
+      <c r="A195" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7776,11 +7874,11 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>341</v>
+      <c r="A196" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7808,11 +7906,11 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>343</v>
+      <c r="A197" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7840,11 +7938,11 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>345</v>
+      <c r="A198" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7872,11 +7970,11 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>347</v>
+      <c r="A199" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7904,11 +8002,11 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200">
-      <c r="A200" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B200" s="6">
-        <v>28.0</v>
+      <c r="A200" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7936,11 +8034,11 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>350</v>
+      <c r="A201" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7968,11 +8066,11 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>352</v>
+      <c r="A202" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -8000,11 +8098,11 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>354</v>
+      <c r="A203" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203" s="7">
+        <v>26.0</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -8032,11 +8130,11 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>355</v>
+      <c r="A204" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -8064,11 +8162,11 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>277</v>
+      <c r="A205" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -8096,11 +8194,11 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>357</v>
+      <c r="A206" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -8128,11 +8226,11 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>359</v>
+      <c r="A207" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -8160,11 +8258,11 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>361</v>
+      <c r="A208" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -8192,11 +8290,11 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>363</v>
+      <c r="A209" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -8224,11 +8322,11 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>277</v>
+      <c r="A210" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -8256,11 +8354,11 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>365</v>
+      <c r="A211" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -8288,11 +8386,11 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>367</v>
+      <c r="A212" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B212" s="7">
+        <v>27.0</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -8320,11 +8418,11 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B213" s="6">
-        <v>29.0</v>
+      <c r="A213" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -8352,11 +8450,11 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>290</v>
+      <c r="A214" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -8384,11 +8482,11 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>355</v>
+      <c r="B215" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -8416,11 +8514,11 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B216" s="4" t="s">
+      <c r="A216" s="5" t="s">
         <v>371</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -8448,11 +8546,11 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>373</v>
+      <c r="A217" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -8480,11 +8578,11 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -8512,11 +8610,11 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="219">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="B219" s="6">
-        <v>30.0</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -8544,11 +8642,11 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>333</v>
+      <c r="B220" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -8576,11 +8674,11 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>361</v>
+      <c r="A221" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -8608,11 +8706,11 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>277</v>
+      <c r="A222" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B222" s="7">
+        <v>28.0</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -8640,11 +8738,11 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>380</v>
+      <c r="A223" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -8672,11 +8770,11 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>359</v>
+      <c r="A224" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -8704,11 +8802,11 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>363</v>
+      <c r="A225" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -8736,11 +8834,11 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>384</v>
+      <c r="A226" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -8768,11 +8866,11 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>277</v>
+      <c r="A227" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -8800,11 +8898,11 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>386</v>
+      <c r="A228" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -8832,11 +8930,11 @@
       <c r="Z228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>388</v>
+      <c r="A229" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -8864,11 +8962,11 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>390</v>
+      <c r="A230" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -8896,11 +8994,11 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>292</v>
+      <c r="A231" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -8928,11 +9026,11 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>392</v>
+      <c r="A232" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -8960,11 +9058,11 @@
       <c r="Z232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B233" s="6">
-        <v>31.0</v>
+      <c r="A233" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -8992,11 +9090,11 @@
       <c r="Z233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>394</v>
+      <c r="A234" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -9024,11 +9122,11 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>396</v>
+      <c r="A235" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="7">
+        <v>29.0</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -9056,11 +9154,11 @@
       <c r="Z235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>398</v>
+      <c r="A236" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -9088,11 +9186,11 @@
       <c r="Z236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>400</v>
+      <c r="A237" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -9120,11 +9218,11 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>402</v>
+      <c r="A238" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -9152,11 +9250,11 @@
       <c r="Z238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B239" s="6">
-        <v>32.0</v>
+      <c r="A239" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -9184,11 +9282,11 @@
       <c r="Z239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>405</v>
+      <c r="A240" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -9216,11 +9314,11 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>407</v>
+      <c r="A241" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B241" s="7">
+        <v>30.0</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -9248,11 +9346,11 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>409</v>
+      <c r="A242" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -9280,11 +9378,11 @@
       <c r="Z242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B243" s="4" t="s">
+      <c r="A243" s="5" t="s">
         <v>411</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -9312,11 +9410,11 @@
       <c r="Z243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>413</v>
+      <c r="A244" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -9344,11 +9442,11 @@
       <c r="Z244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>414</v>
+      <c r="A245" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -9376,11 +9474,11 @@
       <c r="Z245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>416</v>
+      <c r="A246" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -9408,8 +9506,12 @@
       <c r="Z246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -9436,8 +9538,12 @@
       <c r="Z247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -9464,8 +9570,12 @@
       <c r="Z248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -9492,8 +9602,12 @@
       <c r="Z249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -9520,8 +9634,12 @@
       <c r="Z250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -9548,8 +9666,12 @@
       <c r="Z251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -9576,8 +9698,12 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -9604,8 +9730,12 @@
       <c r="Z253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -9632,8 +9762,12 @@
       <c r="Z254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B255" s="7">
+        <v>31.0</v>
+      </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9660,8 +9794,12 @@
       <c r="Z255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9688,8 +9826,12 @@
       <c r="Z256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9716,8 +9858,12 @@
       <c r="Z257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9744,8 +9890,12 @@
       <c r="Z258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9772,8 +9922,12 @@
       <c r="Z259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9800,8 +9954,12 @@
       <c r="Z260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B261" s="7">
+        <v>32.0</v>
+      </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9828,8 +9986,12 @@
       <c r="Z261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>438</v>
+      </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9856,8 +10018,12 @@
       <c r="Z262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9884,8 +10050,12 @@
       <c r="Z263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9912,8 +10082,12 @@
       <c r="Z264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -9940,8 +10114,12 @@
       <c r="Z265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9968,8 +10146,12 @@
       <c r="Z266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9996,8 +10178,12 @@
       <c r="Z267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
